--- a/WIP/Documents/Prototype/Interface/Task_30.9.xlsx
+++ b/WIP/Documents/Prototype/Interface/Task_30.9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Tasks (30.9 - 4.10)</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>chưa có thêm, bỏ tiêu đề</t>
+  </si>
+  <si>
+    <t>horizotal-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thêm ava </t>
+  </si>
+  <si>
+    <t>done note</t>
+  </si>
+  <si>
+    <t>căn chỉnh lại</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -243,11 +261,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,45 +308,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,7 +641,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,259 +651,276 @@
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <v>42647</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="7">
         <v>42647</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="7">
         <v>42647</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="7">
         <v>42647</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="7">
         <v>42647</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="7">
         <v>42647</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="7">
         <v>42646</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="7">
         <v>42646</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="7">
         <v>42646</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="7">
         <v>42646</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="12">
         <v>42646</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
